--- a/tests/traces/h100/gaunernst_bert-small-uncased__1016001_perf_report.xlsx
+++ b/tests/traces/h100/gaunernst_bert-small-uncased__1016001_perf_report.xlsx
@@ -11,9 +11,11 @@
     <sheet name="ops_summary_by_category" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ops_summary" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="ops_unique_args" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="GEMM" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SDPA_fwd" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="BinaryElementwise" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="unified_perf_summary" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GEMM" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="SDPA_fwd" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="BinaryElementwise" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Normalization" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -571,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,53 +634,72 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08038427734375</v>
+        <v>0.04947216796875</v>
       </c>
       <c r="D3" t="n">
-        <v>25.977528231727</v>
+        <v>15.9877613205024</v>
       </c>
       <c r="E3" t="n">
-        <v>89.83468472697695</v>
+        <v>79.84491781575234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>elementwise</t>
+          <t>NORM_fwd</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
-        <v>0.027807373046875</v>
+        <v>0.030912109375</v>
       </c>
       <c r="D4" t="n">
-        <v>8.986419263138711</v>
+        <v>9.989766911224603</v>
       </c>
       <c r="E4" t="n">
-        <v>98.82110399011566</v>
+        <v>89.83468472697695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>16</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.027807373046875</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.986419263138711</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.82110399011566</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>reduce</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B6" t="n">
         <v>1</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>0.00364794921875</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.178896009884359</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -693,7 +714,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,15 +740,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Categories</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>total_direct_kernel_time_ms</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Percentage (%)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Cumulative Percentage (%)</t>
         </is>
@@ -745,15 +771,20 @@
       <c r="C2" t="n">
         <v>26</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'GEMM'}</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>0.19759814453125</v>
-      </c>
-      <c r="E2" t="n">
-        <v>63.85715649524995</v>
       </c>
       <c r="F2" t="n">
         <v>63.85715649524995</v>
       </c>
+      <c r="G2" t="n">
+        <v>63.85715649524995</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -767,13 +798,18 @@
       <c r="C3" t="n">
         <v>4</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'other'}</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>0.037408203125</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>12.08908862391387</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>75.94624511916382</v>
       </c>
     </row>
@@ -789,13 +825,18 @@
       <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'NORM_fwd'}</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>0.030912109375</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>9.989766911224603</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>85.93601203038843</v>
       </c>
     </row>
@@ -811,13 +852,18 @@
       <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>0.014752685546875</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>4.767577913885837</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>90.70358994427426</v>
       </c>
     </row>
@@ -833,13 +879,18 @@
       <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'other'}</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>0.009823974609374999</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>3.174782260857765</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>93.87837220513202</v>
       </c>
     </row>
@@ -855,13 +906,18 @@
       <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>0.009598632812500001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>3.101959277513952</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>96.98033148264598</v>
       </c>
     </row>
@@ -877,13 +933,18 @@
       <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'reduce'}</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>0.00364794921875</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1.178896009884359</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>98.15922749253033</v>
       </c>
     </row>
@@ -899,13 +960,18 @@
       <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'other'}</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>0.002239990234375</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>0.7238904357307586</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>98.88311792826109</v>
       </c>
     </row>
@@ -921,13 +987,18 @@
       <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>0.001760009765625</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>0.5687766922270341</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>99.45189462048812</v>
       </c>
     </row>
@@ -943,13 +1014,18 @@
       <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'elementwise'}</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>0.001696044921875</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.5481053795118888</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>100</v>
       </c>
     </row>
@@ -964,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,80 +1056,85 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>op category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Input Dims</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Input type</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Input Strides</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Concrete Inputs</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>operation_count</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_mean</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_median</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_std</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_min</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_max</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>total_direct_kernel_time_sum</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>ex_UID</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>kernel_details_summary</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>trunc_kernel_details</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Percentage (%)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Cumulative Percentage (%)</t>
         </is>
@@ -1067,64 +1148,69 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>((512,), (141, 512), (512, 512), (), ())</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>((1,), (512, 1), (1, 512), (), ())</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>17</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>5.806942210477941</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>5.7919921875</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>0.1148433039589013</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>5.633056640625</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>6.080078125</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>98.718017578125</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>48</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_wmma_tensorop_bf16_s161616gemm_bf16_32x32_128x2_tn_align8&gt;(cutlass_80_wmma_tensorop_bf16_s161616gemm_bf16_32x32_128x2_tn_align8::Params)', 'stream': 7, 'count': 17, 'total_duration_us': np.float64(98.718), 'mean_duration_us': np.float64(5.8069411764705885), 'median_duration_us': np.float64(5.792), 'std_dev_duration_us': np.float64(0.11144002374700734), 'min_duration_us': np.float64(5.633), 'max_duration_us': np.float64(6.08)}]</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_wmma_tensorop_bf16_s161616gemm_...', 'stream': 7, 'mean_duration_us': np.float64(5.81)}]</t>
         </is>
-      </c>
-      <c r="P2" t="n">
-        <v>31.90238406510043</v>
       </c>
       <c r="Q2" t="n">
         <v>31.90238406510043</v>
       </c>
+      <c r="R2" t="n">
+        <v>31.90238406510043</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,37 +1220,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>((30522,), (141, 512), (512, 30522), (), ())</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>((1,), (512, 1), (1, 512), (), ())</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1</v>
-      </c>
-      <c r="G3" t="n">
-        <v>41.280029296875</v>
       </c>
       <c r="H3" t="n">
         <v>41.280029296875</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="I3" t="n">
         <v>41.280029296875</v>
       </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>41.280029296875</v>
       </c>
@@ -1172,22 +1260,25 @@
         <v>41.280029296875</v>
       </c>
       <c r="M3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="N3" t="n">
         <v>477</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2&gt;(cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(41.28), 'mean_duration_us': np.float64(41.28), 'median_duration_us': np.float64(41.28), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(41.28), 'max_duration_us': np.float64(41.28)}]</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_2...', 'stream': 7, 'mean_duration_us': np.float64(41.28)}]</t>
         </is>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>13.34033422830124</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>45.24271829340167</v>
       </c>
     </row>
@@ -1199,62 +1290,67 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>((1, 141, 8, 64), (1, 141, 8, 64), (1, 141, 8, 64), (), (), (), (), (), (), (), (), (), (), (), ())</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', '', '', 'Scalar', 'Scalar', 'Scalar', 'Scalar', 'Scalar', 'Scalar', '', '', '', '')</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>((72192, 512, 64, 1), (72192, 512, 64, 1), (72192, 512, 64, 1), (), (), (), (), (), (), (), (), (), (), (), ())</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>('', '', '', '', '', '141', '141', '0.', 'False', 'False', '0.125', '', '', '', '')</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>4</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9.35205078125</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>9.1201171875</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>0.4855892589480966</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>9.087890625</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>10.080078125</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>37.408203125</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>86</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(37.408), 'mean_duration_us': np.float64(9.352), 'median_duration_us': np.float64(9.12), 'std_dev_duration_us': np.float64(0.4205139712304459), 'min_duration_us': np.float64(9.088), 'max_duration_us': np.float64(10.08)}]</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(9.35)}]</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>12.08908862391387</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>57.33180691731553</v>
       </c>
     </row>
@@ -1266,62 +1362,67 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>((512,), (141, 2048), (2048, 512), (), ())</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>((1,), (2048, 1), (1, 2048), (), ())</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>8.27227783203125</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>8.224609375</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>0.1417879653527536</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>8.159912109375</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>8.47998046875</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>33.089111328125</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>133</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(33.089), 'mean_duration_us': np.float64(8.27225), 'median_duration_us': np.float64(8.224499999999999), 'std_dev_duration_us': np.float64(0.12280141489412913), 'min_duration_us': np.float64(8.16), 'max_duration_us': np.float64(8.48)}]</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgr...', 'stream': 7, 'mean_duration_us': np.float64(8.27)}]</t>
         </is>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>10.69330162680075</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>68.02510854411628</v>
       </c>
     </row>
@@ -1333,62 +1434,67 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>NORM_fwd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>((1, 141, 512), (), (512,), (512,), ())</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>((72192, 512, 1), (), (1,), (1,), ())</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>('', '[512]', '', '', '9.9999999999999998e-13')</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>10</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>3.0912109375</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>3.0560302734375</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>0.09052056327519079</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>3.008056640625</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>3.262939453125</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>30.912109375</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>29</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 10, 'total_duration_us': np.float64(30.911999999999995), 'mean_duration_us': np.float64(3.0911999999999997), 'median_duration_us': np.float64(3.056), 'std_dev_duration_us': np.float64(0.08591833331716812), 'min_duration_us': np.float64(3.008), 'max_duration_us': np.float64(3.263)}]</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(3.09)}]</t>
         </is>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>9.989766911224601</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>78.01487545534088</v>
       </c>
     </row>
@@ -1400,62 +1506,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>((2048,), (141, 512), (512, 2048), (), ())</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>((1,), (512, 1), (1, 512), (), ())</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>('', '', '', '1', '1')</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>6.12774658203125</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>6.0955810546875</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>0.1536288548372083</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>5.98388671875</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>6.3359375</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>24.510986328125</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>123</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(24.510999999999996), 'mean_duration_us': np.float64(6.127749999999999), 'median_duration_us': np.float64(6.0954999999999995), 'std_dev_duration_us': np.float64(0.13305708361451504), 'min_duration_us': np.float64(5.984), 'max_duration_us': np.float64(6.336)}]</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(6.13)}]</t>
         </is>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>7.921136575047516</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>85.9360120303884</v>
       </c>
     </row>
@@ -1467,62 +1578,67 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>((1, 141, 512), (1, 141, 512), ())</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>((72192, 512, 1), (72192, 512, 1), ())</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>('', '', '1')</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>9</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>1.639187282986111</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>1.632080078125</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>0.04163178334732152</v>
       </c>
-      <c r="J8" t="n">
+      <c r="K8" t="n">
         <v>1.60009765625</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>1.72802734375</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>14.752685546875</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>19</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 9, 'total_duration_us': np.float64(14.752), 'mean_duration_us': np.float64(1.6391111111111112), 'median_duration_us': np.float64(1.632), 'std_dev_duration_us': np.float64(0.03927239472777688), 'min_duration_us': np.float64(1.6), 'max_duration_us': np.float64(1.728)}]</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(1.64)}]</t>
         </is>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>4.767577913885836</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>90.70358994427423</v>
       </c>
     </row>
@@ -1534,62 +1650,67 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>((1, 141, 2048), ())</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>('c10::BFloat16', '')</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>((288768, 2048, 1), ())</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>('', '')</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>4</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>1.9676513671875</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>1.9674072265625</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>0.01818752072956875</v>
       </c>
-      <c r="J9" t="n">
+      <c r="K9" t="n">
         <v>1.951904296875</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>1.98388671875</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>7.87060546875</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>126</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(7.871), 'mean_duration_us': np.float64(1.96775), 'median_duration_us': np.float64(1.9675), 'std_dev_duration_us': np.float64(0.015753967754188188), 'min_duration_us': np.float64(1.952), 'max_duration_us': np.float64(1.984)}]</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Ge...', 'stream': 7, 'mean_duration_us': np.float64(1.97)}]</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>2.543518241644489</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>93.24710818591872</v>
       </c>
     </row>
@@ -1601,37 +1722,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>reduce</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>((1, 141),)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>('bool',)</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>((141, 1),)</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>('',)</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.64794921875</v>
       </c>
       <c r="H10" t="n">
         <v>3.64794921875</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
+      <c r="I10" t="n">
         <v>3.64794921875</v>
       </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>3.64794921875</v>
       </c>
@@ -1639,22 +1762,25 @@
         <v>3.64794921875</v>
       </c>
       <c r="M10" t="n">
+        <v>3.64794921875</v>
+      </c>
+      <c r="N10" t="n">
         <v>37</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;bool, at::native::func_wrapper_t&lt;bool, at::native::and_kernel_cuda(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(bool, bool)#1}&gt;, unsigned int, bool, 4&gt; &gt;(at::native::ReduceOp&lt;bool, at::native::func_wrapper_t&lt;bool, at::native::and_kernel_cuda(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(bool, bool)#1}&gt;, unsigned int, bool, 4&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.648), 'mean_duration_us': np.float64(3.648), 'median_duration_us': np.float64(3.648), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.648), 'max_duration_us': np.float64(3.648)}]</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;bool...', 'stream': 7, 'mean_duration_us': np.float64(3.65)}]</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>1.178896009884359</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>94.42600419580307</v>
       </c>
     </row>
@@ -1666,37 +1792,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>((512, 512), (), (141,))</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'Scalar', 'long int')</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>((512, 1), (), (1,))</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>('', '0', '')</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>1</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.424072265625</v>
       </c>
       <c r="H11" t="n">
         <v>3.424072265625</v>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="I11" t="n">
         <v>3.424072265625</v>
       </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>3.424072265625</v>
       </c>
@@ -1704,22 +1832,25 @@
         <v>3.424072265625</v>
       </c>
       <c r="M11" t="n">
+        <v>3.424072265625</v>
+      </c>
+      <c r="N11" t="n">
         <v>23</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.424), 'mean_duration_us': np.float64(3.424), 'median_duration_us': np.float64(3.424), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.424), 'max_duration_us': np.float64(3.424)}]</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 7, 'mean_duration_us': np.float64(3.42)}]</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>1.10654641538135</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>95.53255061118442</v>
       </c>
     </row>
@@ -1731,37 +1862,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>((2, 512), (), (141,))</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'Scalar', 'long int')</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>((512, 1), (), (1,))</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>('', '0', '')</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.263916015625</v>
       </c>
       <c r="H12" t="n">
         <v>3.263916015625</v>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
+      <c r="I12" t="n">
         <v>3.263916015625</v>
       </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>3.263916015625</v>
       </c>
@@ -1769,22 +1902,25 @@
         <v>3.263916015625</v>
       </c>
       <c r="M12" t="n">
+        <v>3.263916015625</v>
+      </c>
+      <c r="N12" t="n">
         <v>15</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.264), 'mean_duration_us': np.float64(3.264), 'median_duration_us': np.float64(3.264), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.264), 'max_duration_us': np.float64(3.264)}]</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 7, 'mean_duration_us': np.float64(3.26)}]</t>
         </is>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>1.054789235453353</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>96.58733984663778</v>
       </c>
     </row>
@@ -1796,37 +1932,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>((30522, 512), (), (141,))</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'Scalar', 'long int')</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>((512, 1), (), (1,))</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>('', '0', '')</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>1</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3.135986328125</v>
       </c>
       <c r="H13" t="n">
         <v>3.135986328125</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
+      <c r="I13" t="n">
         <v>3.135986328125</v>
       </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>3.135986328125</v>
       </c>
@@ -1834,22 +1972,25 @@
         <v>3.135986328125</v>
       </c>
       <c r="M13" t="n">
+        <v>3.135986328125</v>
+      </c>
+      <c r="N13" t="n">
         <v>8</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.136), 'mean_duration_us': np.float64(3.136), 'median_duration_us': np.float64(3.136), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.136), 'max_duration_us': np.float64(3.136)}]</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 7, 'mean_duration_us': np.float64(3.14)}]</t>
         </is>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>1.013446610023062</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>97.60078645666084</v>
       </c>
     </row>
@@ -1861,37 +2002,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>((),)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>('bool',)</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>((),)</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>('',)</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>1</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.239990234375</v>
       </c>
       <c r="H14" t="n">
         <v>2.239990234375</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+      <c r="I14" t="n">
         <v>2.239990234375</v>
       </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>2.239990234375</v>
       </c>
@@ -1899,22 +2042,25 @@
         <v>2.239990234375</v>
       </c>
       <c r="M14" t="n">
+        <v>2.239990234375</v>
+      </c>
+      <c r="N14" t="n">
         <v>41</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>[{'name': 'Memcpy DtoH (Device -&gt; Pinned)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.24), 'mean_duration_us': np.float64(2.24), 'median_duration_us': np.float64(2.24), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.24), 'max_duration_us': np.float64(2.24)}]</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>[{'name': 'Memcpy DtoH (Device -&gt; Pinned)', 'stream': 7, 'mean_duration_us': np.float64(2.24)}]</t>
         </is>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.7238904357307585</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>98.32467689239159</v>
       </c>
     </row>
@@ -1926,37 +2072,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>((1, 141), ())</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>('long int', 'Scalar')</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>((141, 1), ())</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>('', '1')</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.760009765625</v>
       </c>
       <c r="H15" t="n">
         <v>1.760009765625</v>
       </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="I15" t="n">
         <v>1.760009765625</v>
       </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>1.760009765625</v>
       </c>
@@ -1964,22 +2112,25 @@
         <v>1.760009765625</v>
       </c>
       <c r="M15" t="n">
+        <v>1.760009765625</v>
+      </c>
+      <c r="N15" t="n">
         <v>36</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.76), 'mean_duration_us': np.float64(1.76), 'median_duration_us': np.float64(1.76), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.76), 'max_duration_us': np.float64(1.76)}]</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::AU...', 'stream': 7, 'mean_duration_us': np.float64(1.76)}]</t>
         </is>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.5687766922270341</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>98.89345358461863</v>
       </c>
     </row>
@@ -1991,37 +2142,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>((1, 141, 512), ())</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>('c10::BFloat16', '')</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>((72192, 512, 1), ())</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>('', '')</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>1</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1.72802734375</v>
       </c>
       <c r="H16" t="n">
         <v>1.72802734375</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
+      <c r="I16" t="n">
         <v>1.72802734375</v>
       </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>1.72802734375</v>
       </c>
@@ -2029,22 +2182,25 @@
         <v>1.72802734375</v>
       </c>
       <c r="M16" t="n">
+        <v>1.72802734375</v>
+      </c>
+      <c r="N16" t="n">
         <v>463</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.728), 'mean_duration_us': np.float64(1.728), 'median_duration_us': np.float64(1.728), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.728), 'max_duration_us': np.float64(1.728)}]</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Ge...', 'stream': 7, 'mean_duration_us': np.float64(1.73)}]</t>
         </is>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.5584410358694615</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>99.45189462048809</v>
       </c>
     </row>
@@ -2056,37 +2212,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>((1, 141, 512), (1, 141, 512), ())</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>((72192, 512, 1), (72192, 512, 1), ())</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>('', '', '1')</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.696044921875</v>
       </c>
       <c r="H17" t="n">
         <v>1.696044921875</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="I17" t="n">
         <v>1.696044921875</v>
       </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>1.696044921875</v>
       </c>
@@ -2094,22 +2252,25 @@
         <v>1.696044921875</v>
       </c>
       <c r="M17" t="n">
+        <v>1.696044921875</v>
+      </c>
+      <c r="N17" t="n">
         <v>27</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.696), 'mean_duration_us': np.float64(1.696), 'median_duration_us': np.float64(1.696), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.696), 'max_duration_us': np.float64(1.696)}]</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(1.7)}]</t>
         </is>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.5481053795118888</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>99.99999999999999</v>
       </c>
     </row>
@@ -2124,7 +2285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2140,177 +2301,197 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param: M</t>
+          <t>op category</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param: N</t>
+          <t>Input Dims</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>param: K</t>
+          <t>Input type</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>param: bias</t>
+          <t>Input Strides</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_A</t>
+          <t>Concrete Inputs</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_B</t>
+          <t>ex_UID</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>param: dtype_A_B</t>
+          <t>operation_count</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>param: B</t>
+          <t>total_duration_us</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GFLOPS_first</t>
+          <t>mean_duration_us</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Data Moved (MB)_first</t>
+          <t>std_duration_us</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>FLOPS/Byte_first</t>
+          <t>GFLOPS</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Data Moved (MB)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>FLOPS/Byte</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>TB/s_mean</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_std</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_std</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_mean</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_std</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_sum</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>duration_us_median</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>duration_us_min</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>duration_us_max</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>TB/s_median</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>TB/s_std</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>TB/s_min</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>TB/s_max</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>TFLOPS/s_mean</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_median</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>TFLOPS/s_std</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_min</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_max</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>kernel_details__summarize_kernel_stats</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_median</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_min</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_max</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>kernel_details_summary</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>trunc_kernel_details</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Input Dims_first</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Input type_first</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Input Strides_first</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Concrete Inputs_first</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_mean</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_median</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_std</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_min</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_max</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Kernel Time (µs)_sum</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>name_count</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>UID_first</t>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>perf_params</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>has_perf_model</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage (%)</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Cumulative Percentage (%)</t>
         </is>
       </c>
     </row>
@@ -2320,128 +2501,140 @@
           <t>aten::addmm</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>141</v>
-      </c>
-      <c r="C2" t="n">
-        <v>512</v>
-      </c>
-      <c r="D2" t="n">
-        <v>512</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>((512,), (141, 512), (512, 512), (), ())</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>((1,), (512, 1), (1, 512), (), ())</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(512, 1)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>(1, 512)</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>48</v>
+      </c>
+      <c r="H2" t="n">
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>485.398</v>
       </c>
       <c r="J2" t="n">
+        <v>28.55282352941177</v>
+      </c>
+      <c r="K2" t="n">
+        <v>4.902817126857962</v>
+      </c>
+      <c r="L2" t="n">
         <v>0.0739968</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.7763671875</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>90.89622641509433</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
         <v>0.1402419147499023</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.1405526757713708</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0.00274580737810573</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.1338930163829104</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.1445183409179561</v>
       </c>
       <c r="R2" t="n">
         <v>12.74746083599348</v>
       </c>
       <c r="S2" t="n">
+        <v>0.2495835291325353</v>
+      </c>
+      <c r="T2" t="n">
+        <v>5.806942210477941</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1148433039589013</v>
+      </c>
+      <c r="V2" t="n">
+        <v>98.718017578125</v>
+      </c>
+      <c r="W2" t="n">
+        <v>28.97</v>
+      </c>
+      <c r="X2" t="n">
+        <v>21.041</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1405526757713708</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.1338930163829104</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1445183409179561</v>
+      </c>
+      <c r="AC2" t="n">
         <v>12.77570784016186</v>
       </c>
-      <c r="T2" t="n">
-        <v>0.2495835291325353</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="AD2" t="n">
         <v>12.17036993254096</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AE2" t="n">
         <v>13.13617183721233</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="n">
+        <v>5.7919921875</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.633056640625</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.080078125</v>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_wmma_tensorop_bf16_s161616gemm_bf16_32x32_128x2_tn_align8&gt;(cutlass_80_wmma_tensorop_bf16_s161616gemm_bf16_32x32_128x2_tn_align8::Params)', 'stream': 7, 'count': 17, 'total_duration_us': np.float64(98.718), 'mean_duration_us': np.float64(5.8069411764705885), 'median_duration_us': np.float64(5.792), 'std_dev_duration_us': np.float64(0.11144002374700734), 'min_duration_us': np.float64(5.633), 'max_duration_us': np.float64(6.08)}]</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_wmma_tensorop_bf16_s161616gemm_...', 'stream': 7, 'mean_duration_us': np.float64(5.81)}]</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[[512], [141, 512], [512, 512], [], []]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[[1], [512, 1], [1, 512], [], []]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.806942210477941</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>5.7919921875</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0.1148433039589013</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>5.633056640625</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>6.080078125</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>98.718017578125</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>48</v>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>{'M': 141, 'N': 512, 'K': 512, 'bias': True, 'stride_A': (512, 1), 'stride_B': (1, 512), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>31.90238406510043</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>31.90238406510043</v>
       </c>
     </row>
     <row r="3">
@@ -2450,108 +2643,100 @@
           <t>aten::addmm</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>141</v>
-      </c>
-      <c r="C3" t="n">
-        <v>30522</v>
-      </c>
-      <c r="D3" t="n">
-        <v>512</v>
-      </c>
-      <c r="E3" t="b">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>((30522,), (141, 512), (512, 30522), (), ())</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>((1,), (512, 1), (1, 512), (), ())</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>477</v>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>(512, 1)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>(1, 512)</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>30.371</v>
       </c>
       <c r="J3" t="n">
+        <v>30.371</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
         <v>4.41119205</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>38.21102142333984</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>110.0949518258843</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.9706184971877716</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.9706184971877716</v>
-      </c>
-      <c r="O3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
       <c r="P3" t="n">
         <v>0.9706184971877716</v>
       </c>
-      <c r="Q3" t="n">
-        <v>0.9706184971877716</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>106.8601966892</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="W3" t="n">
+        <v>30.371</v>
+      </c>
+      <c r="X3" t="n">
+        <v>30.371</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>30.371</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9706184971877716</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.9706184971877716</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.9706184971877716</v>
+      </c>
+      <c r="AC3" t="n">
         <v>106.8601966892</v>
       </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
+      <c r="AD3" t="n">
         <v>106.8601966892</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AE3" t="n">
         <v>106.8601966892</v>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2&gt;(cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(41.28), 'mean_duration_us': np.float64(41.28), 'median_duration_us': np.float64(41.28), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(41.28), 'max_duration_us': np.float64(41.28)}]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_2...', 'stream': 7, 'mean_duration_us': np.float64(41.28)}]</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>[[30522], [141, 512], [512, 30522], [], []]</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>[[1], [512, 1], [1, 512], [], []]</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC3" t="n">
-        <v>41.280029296875</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>41.280029296875</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="n">
         <v>41.280029296875</v>
       </c>
@@ -2561,141 +2746,167 @@
       <c r="AH3" t="n">
         <v>41.280029296875</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2&gt;(cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(41.28), 'mean_duration_us': np.float64(41.28), 'median_duration_us': np.float64(41.28), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(41.28), 'max_duration_us': np.float64(41.28)}]</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_2...', 'stream': 7, 'mean_duration_us': np.float64(41.28)}]</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>{'M': 141, 'N': 30522, 'K': 512, 'bias': True, 'stride_A': (512, 1), 'stride_B': (1, 512), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL3" t="b">
         <v>1</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>477</v>
+      <c r="AM3" t="n">
+        <v>13.34033422830124</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>45.24271829340167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>aten::addmm</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>141</v>
-      </c>
-      <c r="C4" t="n">
-        <v>512</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2048</v>
-      </c>
-      <c r="E4" t="b">
+          <t>aten::_scaled_dot_product_flash_attention</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SDPA_fwd</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>((1, 8, 141, 64), (1, 8, 141, 64), (1, 8, 141, 64), (), (), (), ())</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>((72192, 64, 512, 1), (72192, 64, 512, 1), (72192, 64, 512, 1), (), (), (), ())</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>('', '', '', '0.', 'False', 'False', '0.125')</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>79</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>185.572</v>
+      </c>
+      <c r="J4" t="n">
+        <v>46.393</v>
+      </c>
+      <c r="K4" t="n">
+        <v>8.327637640211462</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.040716288</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.55078125</v>
+      </c>
+      <c r="N4" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
+        <v>0.06187396470356522</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.003054615255047572</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.362114511601348</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.2153503754808538</v>
+      </c>
+      <c r="T4" t="n">
+        <v>9.35205078125</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.4855892589480966</v>
+      </c>
+      <c r="V4" t="n">
+        <v>37.408203125</v>
+      </c>
+      <c r="W4" t="n">
+        <v>43.2205</v>
+      </c>
+      <c r="X4" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>58.591</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.06332550208801799</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.05729479403216432</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.06355006060606061</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>4.464447897205268</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>4.039282979267584</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4.480279272727273</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>9.1201171875</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>9.087890625</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>10.080078125</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(37.408), 'mean_duration_us': np.float64(9.352), 'median_duration_us': np.float64(9.12), 'std_dev_duration_us': np.float64(0.4205139712304459), 'min_duration_us': np.float64(9.088), 'max_duration_us': np.float64(10.08)}]</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(9.35)}]</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>{'B': 1, 'N_Q': 141, 'H_Q': 8, 'N_KV': 141, 'H_KV': 8, 'd_h_qk': 64, 'd_h_v': 64, 'dropout': 0.0, 'causal': False, 'flash_impl': True}</t>
+        </is>
+      </c>
+      <c r="AL4" t="b">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>(2048, 1)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>(1, 2048)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.295770624</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.689453125</v>
-      </c>
-      <c r="L4" t="n">
-        <v>104.8796296296296</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.340983294864334</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.3428851002348915</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.005760420394028042</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.3325592565209881</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.3456037224665649</v>
-      </c>
-      <c r="R4" t="n">
-        <v>35.76220167526214</v>
-      </c>
-      <c r="S4" t="n">
-        <v>35.96166231815386</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.6041507574366252</v>
-      </c>
-      <c r="U4" t="n">
-        <v>34.87869165382622</v>
-      </c>
-      <c r="V4" t="n">
-        <v>36.24679041091463</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(33.089), 'mean_duration_us': np.float64(8.27225), 'median_duration_us': np.float64(8.224499999999999), 'std_dev_duration_us': np.float64(0.12280141489412913), 'min_duration_us': np.float64(8.16), 'max_duration_us': np.float64(8.48)}]</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgr...', 'stream': 7, 'mean_duration_us': np.float64(8.27)}]</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>[[512], [141, 2048], [2048, 512], [], []]</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA4" t="inlineStr">
-        <is>
-          <t>[[1], [2048, 1], [1, 2048], [], []]</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC4" t="n">
-        <v>8.27227783203125</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.224609375</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.1417879653527536</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>8.159912109375</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>8.47998046875</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>33.089111328125</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>133</v>
+      <c r="AM4" t="n">
+        <v>12.08908862391387</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>57.33180691731553</v>
       </c>
     </row>
     <row r="5">
@@ -2704,128 +2915,1536 @@
           <t>aten::addmm</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>141</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2048</v>
-      </c>
-      <c r="D5" t="n">
-        <v>512</v>
-      </c>
-      <c r="E5" t="b">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>((512,), (141, 2048), (2048, 512), (), ())</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>((1,), (2048, 1), (1, 2048), (), ())</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>133</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>169.933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>42.48325</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.106615037605746</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.295770624</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2.689453125</v>
+      </c>
+      <c r="N5" t="n">
+        <v>104.8796296296296</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>0.340983294864334</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.005760420394028042</v>
+      </c>
+      <c r="R5" t="n">
+        <v>35.76220167526214</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.6041507574366252</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.27227783203125</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.1417879653527536</v>
+      </c>
+      <c r="V5" t="n">
+        <v>33.089111328125</v>
+      </c>
+      <c r="W5" t="n">
+        <v>42.3805</v>
+      </c>
+      <c r="X5" t="n">
+        <v>40.081</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>45.091</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.3428851002348915</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.3325592565209881</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.3456037224665649</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>35.96166231815386</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>34.87869165382622</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>36.24679041091463</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>8.224609375</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>8.159912109375</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>8.47998046875</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(33.089), 'mean_duration_us': np.float64(8.27225), 'median_duration_us': np.float64(8.224499999999999), 'std_dev_duration_us': np.float64(0.12280141489412913), 'min_duration_us': np.float64(8.16), 'max_duration_us': np.float64(8.48)}]</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgr...', 'stream': 7, 'mean_duration_us': np.float64(8.27)}]</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>{'M': 141, 'N': 512, 'K': 2048, 'bias': True, 'stride_A': (2048, 1), 'stride_B': (1, 2048), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>(512, 1)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>(1, 512)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>('c10::BFloat16', 'c10::BFloat16')</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="AM5" t="n">
+        <v>10.69330162680075</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>68.02510854411628</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>aten::layer_norm</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NORM_fwd</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>((1, 141, 512), (), (512,), (512,), (), ())</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>((72192, 512, 1), (), (1,), (1,), (), ())</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>('', '[512]', '', '', '9.9999999999999998e-13', 'True')</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>28</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+      <c r="I6" t="n">
+        <v>276.404</v>
+      </c>
+      <c r="J6" t="n">
+        <v>27.6404</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.357671521224857</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.000364032</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.234375</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>0.09547558591213023</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.002740055714790023</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1178526763602858</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.003382256272943936</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.0912109375</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.09052056327519079</v>
+      </c>
+      <c r="V6" t="n">
+        <v>30.912109375</v>
+      </c>
+      <c r="W6" t="n">
+        <v>27.2455</v>
+      </c>
+      <c r="X6" t="n">
+        <v>23.72</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.09650430420619358</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.09038230841750841</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.09804070708546384</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.1191225005045202</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>0.1115656619528619</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0.1210189978086194</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>3.0560302734375</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3.008056640625</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>3.262939453125</v>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 10, 'total_duration_us': np.float64(30.911999999999995), 'mean_duration_us': np.float64(3.0911999999999997), 'median_duration_us': np.float64(3.056), 'std_dev_duration_us': np.float64(0.08591833331716812), 'min_duration_us': np.float64(3.008), 'max_duration_us': np.float64(3.263)}]</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(3.09)}]</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>{'op_shape': (1, 141, 512), 'dtype_in_out': ('c10::BFloat16', None), 'stride_input': (72192, 512, 1), 'stride_output': None, 'num_channels': 512, 'has_bias': True, 'is_affine': True, 'is_training': True}</t>
+        </is>
+      </c>
+      <c r="AL6" t="b">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
+      <c r="AM6" t="n">
+        <v>9.989766911224601</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>78.01487545534088</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GEMM</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>((2048,), (141, 512), (512, 2048), (), ())</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>((1,), (512, 1), (1, 512), (), ())</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>('', '', '', '1', '1')</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>123</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>140.042</v>
+      </c>
+      <c r="J7" t="n">
+        <v>35.0105</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.389500714933281</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.2959872</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M7" t="n">
         <v>2.6923828125</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N7" t="n">
         <v>104.8422198041349</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
         <v>0.4609334034383986</v>
       </c>
-      <c r="N5" t="n">
+      <c r="Q7" t="n">
+        <v>0.01141497729429235</v>
+      </c>
+      <c r="R7" t="n">
+        <v>48.32528119835659</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.196771558547411</v>
+      </c>
+      <c r="T7" t="n">
+        <v>6.12774658203125</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.1536288548372083</v>
+      </c>
+      <c r="V7" t="n">
+        <v>24.510986328125</v>
+      </c>
+      <c r="W7" t="n">
+        <v>35.1905</v>
+      </c>
+      <c r="X7" t="n">
+        <v>32.38</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>37.281</v>
+      </c>
+      <c r="Z7" t="n">
         <v>0.4631792165968792</v>
       </c>
-      <c r="O5" t="n">
-        <v>0.01141497729429235</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="AA7" t="n">
         <v>0.4455801528976572</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AB7" t="n">
         <v>0.4717950276621787</v>
       </c>
-      <c r="R5" t="n">
-        <v>48.32528119835659</v>
-      </c>
-      <c r="S5" t="n">
+      <c r="AC7" t="n">
         <v>48.56073723515704</v>
       </c>
-      <c r="T5" t="n">
-        <v>1.196771558547411</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="AD7" t="n">
         <v>46.71561233045623</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AE7" t="n">
         <v>49.46403799265606</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF7" t="n">
+        <v>6.0955810546875</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>5.98388671875</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.3359375</v>
+      </c>
+      <c r="AI7" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(24.510999999999996), 'mean_duration_us': np.float64(6.127749999999999), 'median_duration_us': np.float64(6.0954999999999995), 'std_dev_duration_us': np.float64(0.13305708361451504), 'min_duration_us': np.float64(5.984), 'max_duration_us': np.float64(6.336)}]</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AJ7" t="inlineStr">
         <is>
           <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(6.13)}]</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>[[2048], [141, 512], [512, 2048], [], []]</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>[[1], [512, 1], [1, 512], [], []]</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>['', '', '', '1', '1']</t>
-        </is>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.12774658203125</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.0955810546875</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.1536288548372083</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>5.98388671875</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>6.3359375</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>24.510986328125</v>
-      </c>
-      <c r="AI5" t="n">
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>{'M': 141, 'N': 2048, 'K': 512, 'bias': True, 'stride_A': (512, 1), 'stride_B': (1, 512), 'dtype_A_B': ('c10::BFloat16', 'c10::BFloat16'), 'B': 1}</t>
+        </is>
+      </c>
+      <c r="AL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>7.921136575047516</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>85.9360120303884</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aten::add</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>((1, 141, 512), (1, 141, 512), ())</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>((72192, 512, 1), (72192, 512, 1), ())</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>('', '', '1')</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>19</v>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="n">
+        <v>116.751</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.97233333333333</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.6333454823396152</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7.2192e-05</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.4130859375</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>0.2643961322969915</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.006562787256476584</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.04406602204949858</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.001093797876079427</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.639187282986111</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.04163178334732152</v>
+      </c>
+      <c r="V8" t="n">
+        <v>14.752685546875</v>
+      </c>
+      <c r="W8" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.2653987422587883</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.250662700197796</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.270703477570949</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.04423312370979806</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.04177711669963267</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.04511724626182484</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>1.632080078125</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1.60009765625</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1.72802734375</v>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 9, 'total_duration_us': np.float64(14.752), 'mean_duration_us': np.float64(1.6391111111111112), 'median_duration_us': np.float64(1.632), 'std_dev_duration_us': np.float64(0.03927239472777688), 'min_duration_us': np.float64(1.6), 'max_duration_us': np.float64(1.728)}]</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(1.64)}]</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>{'shape_in1': (1, 141, 512), 'shape_in2': (1, 141, 512), 'dtype_in1_in2_out': ('c10::BFloat16', 'c10::BFloat16', None), 'stride_input1': (72192, 512, 1), 'stride_input2': (72192, 512, 1), 'stride_output': None}</t>
+        </is>
+      </c>
+      <c r="AL8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>4.767577913885836</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>90.70358994427423</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aten::gelu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>((1, 141, 2048), ())</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', '')</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>((288768, 2048, 1), ())</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>('', '')</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>126</v>
+      </c>
+      <c r="H9" t="n">
         <v>4</v>
       </c>
-      <c r="AJ5" t="n">
-        <v>123</v>
+      <c r="I9" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>15.28</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6.821089844494549</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="n">
+        <v>1.9676513671875</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.01818752072956875</v>
+      </c>
+      <c r="V9" t="n">
+        <v>7.87060546875</v>
+      </c>
+      <c r="W9" t="n">
+        <v>11.925</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11.76</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>25.51</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="n">
+        <v>1.9674072265625</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1.951904296875</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>1.98388671875</v>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(7.871), 'mean_duration_us': np.float64(1.96775), 'median_duration_us': np.float64(1.9675), 'std_dev_duration_us': np.float64(0.015753967754188188), 'min_duration_us': np.float64(1.952), 'max_duration_us': np.float64(1.984)}]</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Ge...', 'stream': 7, 'mean_duration_us': np.float64(1.97)}]</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>2.543518241644489</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>93.24710818591872</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>aten::all</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>reduce</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>((1, 141),)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>('bool',)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>((141, 1),)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>('',)</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>37</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="n">
+        <v>3.64794921875</v>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="n">
+        <v>3.64794921875</v>
+      </c>
+      <c r="W10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="n">
+        <v>3.64794921875</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3.64794921875</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>3.64794921875</v>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;bool, at::native::func_wrapper_t&lt;bool, at::native::and_kernel_cuda(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(bool, bool)#1}&gt;, unsigned int, bool, 4&gt; &gt;(at::native::ReduceOp&lt;bool, at::native::func_wrapper_t&lt;bool, at::native::and_kernel_cuda(at::TensorIterator&amp;)::{lambda()#1}::operator()() const::{lambda()#12}::operator()() const::{lambda(bool, bool)#1}&gt;, unsigned int, bool, 4&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.648), 'mean_duration_us': np.float64(3.648), 'median_duration_us': np.float64(3.648), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.648), 'max_duration_us': np.float64(3.648)}]</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::reduce_kernel&lt;512, 1, at::native::ReduceOp&lt;bool...', 'stream': 7, 'mean_duration_us': np.float64(3.65)}]</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.178896009884359</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>94.42600419580307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>aten::index_select</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>((512, 512), (), (141,))</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'Scalar', 'long int')</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>((512, 1), (), (1,))</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>('', '0', '')</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>23</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="n">
+        <v>3.424072265625</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="n">
+        <v>3.424072265625</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="X11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="n">
+        <v>3.424072265625</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3.424072265625</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>3.424072265625</v>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.424), 'mean_duration_us': np.float64(3.424), 'median_duration_us': np.float64(3.424), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.424), 'max_duration_us': np.float64(3.424)}]</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 7, 'mean_duration_us': np.float64(3.42)}]</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.10654641538135</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>95.53255061118442</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aten::index_select</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>((2, 512), (), (141,))</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'Scalar', 'long int')</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>((512, 1), (), (1,))</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>('', '0', '')</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>15</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14.861</v>
+      </c>
+      <c r="J12" t="n">
+        <v>14.861</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="n">
+        <v>3.263916015625</v>
+      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="n">
+        <v>3.263916015625</v>
+      </c>
+      <c r="W12" t="n">
+        <v>14.861</v>
+      </c>
+      <c r="X12" t="n">
+        <v>14.861</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>14.861</v>
+      </c>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="n">
+        <v>3.263916015625</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3.263916015625</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>3.263916015625</v>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.264), 'mean_duration_us': np.float64(3.264), 'median_duration_us': np.float64(3.264), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.264), 'max_duration_us': np.float64(3.264)}]</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 7, 'mean_duration_us': np.float64(3.26)}]</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.054789235453353</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>96.58733984663778</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aten::index_select</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>((30522, 512), (), (141,))</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'Scalar', 'long int')</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>((512, 1), (), (1,))</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>('', '0', '')</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>58.651</v>
+      </c>
+      <c r="J13" t="n">
+        <v>58.651</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>3.135986328125</v>
+      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="n">
+        <v>3.135986328125</v>
+      </c>
+      <c r="W13" t="n">
+        <v>58.651</v>
+      </c>
+      <c r="X13" t="n">
+        <v>58.651</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>58.651</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="n">
+        <v>3.135986328125</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3.135986328125</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3.135986328125</v>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c10::BFloat16, long, unsigned int, 2, 2, -2, true&gt;(at::cuda::detail::TensorInfo&lt;c10::BFloat16, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;c10::BFloat16 const, unsigned int&gt;, at::cuda::detail::TensorInfo&lt;long const, unsigned int&gt;, int, int, unsigned int, unsigned int, long)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(3.136), 'mean_duration_us': np.float64(3.136), 'median_duration_us': np.float64(3.136), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(3.136), 'max_duration_us': np.float64(3.136)}]</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::indexSelectLargeIndex&lt;c1...', 'stream': 7, 'mean_duration_us': np.float64(3.14)}]</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.013446610023062</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>97.60078645666084</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>aten::_local_scalar_dense</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>((),)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>('bool',)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>((),)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>('',)</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>41</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="J14" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>2.239990234375</v>
+      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="n">
+        <v>2.239990234375</v>
+      </c>
+      <c r="W14" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>19.62</v>
+      </c>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="n">
+        <v>2.239990234375</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>2.239990234375</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>2.239990234375</v>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Pinned)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(2.24), 'mean_duration_us': np.float64(2.24), 'median_duration_us': np.float64(2.24), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(2.24), 'max_duration_us': np.float64(2.24)}]</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>[{'name': 'Memcpy DtoH (Device -&gt; Pinned)', 'stream': 7, 'mean_duration_us': np.float64(2.24)}]</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.7238904357307585</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>98.32467689239159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>aten::eq</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>((1, 141), ())</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>('long int', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>((141, 1), ())</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>('', '1')</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>36</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>22</v>
+      </c>
+      <c r="J15" t="n">
+        <v>22</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>1.760009765625</v>
+      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="n">
+        <v>1.760009765625</v>
+      </c>
+      <c r="W15" t="n">
+        <v>22</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="n">
+        <v>1.760009765625</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1.760009765625</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>1.760009765625</v>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt;, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::AUnaryFunctor&lt;long, long, bool, at::native::(anonymous namespace)::CompareEqFunctor&lt;long&gt; &gt;, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.76), 'mean_duration_us': np.float64(1.76), 'median_duration_us': np.float64(1.76), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.76), 'max_duration_us': np.float64(1.76)}]</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::AU...', 'stream': 7, 'mean_duration_us': np.float64(1.76)}]</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.5687766922270341</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>98.89345358461863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>aten::gelu</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>((1, 141, 512), ())</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', '')</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>((72192, 512, 1), ())</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>('', '')</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>463</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="J16" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>1.72802734375</v>
+      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>1.72802734375</v>
+      </c>
+      <c r="W16" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="n">
+        <v>1.72802734375</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1.72802734375</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1.72802734375</v>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt; &gt;(int, at::native::GeluCUDAKernelImpl(at::TensorIteratorBase&amp;, at::native::GeluType)::{lambda()#2}::operator()() const::{lambda()#4}::operator()() const::{lambda(c10::BFloat16)#1}, std::array&lt;char*, 2ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.728), 'mean_duration_us': np.float64(1.728), 'median_duration_us': np.float64(1.728), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.728), 'max_duration_us': np.float64(1.728)}]</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::Ge...', 'stream': 7, 'mean_duration_us': np.float64(1.73)}]</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.5584410358694615</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>99.45189462048809</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>aten::add_</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>elementwise</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>((1, 141, 512), (1, 141, 512), ())</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16', 'Scalar')</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>((72192, 512, 1), (72192, 512, 1), ())</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>('', '', '1')</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>27</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="J17" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>7.2192e-05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.4130859375</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>0.2553894619260112</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.04256491032100188</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>1.696044921875</v>
+      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="n">
+        <v>1.696044921875</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.2553894619260112</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.2553894619260112</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.2553894619260112</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.04256491032100188</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.04256491032100188</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.04256491032100188</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.696044921875</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1.696044921875</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1.696044921875</v>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.696), 'mean_duration_us': np.float64(1.696), 'median_duration_us': np.float64(1.696), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.696), 'max_duration_us': np.float64(1.696)}]</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(1.7)}]</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>{'shape_in1': (1, 141, 512), 'shape_in2': (1, 141, 512), 'dtype_in1_in2_out': ('c10::BFloat16', 'c10::BFloat16', None), 'stride_input1': (72192, 512, 1), 'stride_input2': (72192, 512, 1), 'stride_output': None}</t>
+        </is>
+      </c>
+      <c r="AL17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.5481053795118888</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>99.99999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +4458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL2"/>
+  <dimension ref="A1:AK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2855,185 +4474,180 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>param: M</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>param: N</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param: K</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>param: bias</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_A</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_B</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>param: dtype_A_B</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>param: B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>param: N_Q</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>param: H_Q</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>param: N_KV</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>param: H_KV</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>param: d_h_qk</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>param: d_h_v</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>param: dropout</t>
-        </is>
-      </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>param: causal</t>
+          <t>GFLOPS_first</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>param: flash_impl</t>
+          <t>Data Moved (MB)_first</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>GFLOPS_first</t>
+          <t>FLOPS/Byte_first</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Data Moved (MB)_first</t>
+          <t>TB/s_mean</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>FLOPS/Byte_first</t>
+          <t>TB/s_median</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_mean</t>
+          <t>TB/s_std</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_median</t>
+          <t>TB/s_min</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_std</t>
+          <t>TB/s_max</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_min</t>
+          <t>TFLOPS/s_mean</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>TB/s_max</t>
+          <t>TFLOPS/s_median</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_mean</t>
+          <t>TFLOPS/s_std</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_median</t>
+          <t>TFLOPS/s_min</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_std</t>
+          <t>TFLOPS/s_max</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_min</t>
+          <t>Compute Spec</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>TFLOPS/s_max</t>
+          <t>kernel_details__summarize_kernel_stats</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>kernel_details__summarize_kernel_stats</t>
+          <t>trunc_kernel_details</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>trunc_kernel_details</t>
+          <t>Input Dims_first</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Input Dims_first</t>
+          <t>Input type_first</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Input type_first</t>
+          <t>Input Strides_first</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Input Strides_first</t>
+          <t>Concrete Inputs_first</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>Concrete Inputs_first</t>
+          <t>Kernel Time (µs)_mean</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_mean</t>
+          <t>Kernel Time (µs)_median</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_median</t>
+          <t>Kernel Time (µs)_std</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_std</t>
+          <t>Kernel Time (µs)_min</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_min</t>
+          <t>Kernel Time (µs)_max</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_max</t>
+          <t>Kernel Time (µs)_sum</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Kernel Time (µs)_sum</t>
+          <t>name_count</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>name_count</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>UID_first</t>
         </is>
@@ -3042,131 +4656,575 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aten::_scaled_dot_product_flash_attention</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>(512, 1)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>(1, 512)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0739968</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7763671875</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90.89622641509433</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1402419147499023</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1405526757713708</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.00274580737810573</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.1338930163829104</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1445183409179561</v>
+      </c>
+      <c r="R2" t="n">
+        <v>12.74746083599348</v>
+      </c>
+      <c r="S2" t="n">
+        <v>12.77570784016186</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.2495835291325353</v>
+      </c>
+      <c r="U2" t="n">
+        <v>12.17036993254096</v>
+      </c>
+      <c r="V2" t="n">
+        <v>13.13617183721233</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_wmma_tensorop_bf16_s161616gemm_bf16_32x32_128x2_tn_align8&gt;(cutlass_80_wmma_tensorop_bf16_s161616gemm_bf16_32x32_128x2_tn_align8::Params)', 'stream': 7, 'count': 17, 'total_duration_us': np.float64(98.718), 'mean_duration_us': np.float64(5.8069411764705885), 'median_duration_us': np.float64(5.792), 'std_dev_duration_us': np.float64(0.11144002374700734), 'min_duration_us': np.float64(5.633), 'max_duration_us': np.float64(6.08)}]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_wmma_tensorop_bf16_s161616gemm_...', 'stream': 7, 'mean_duration_us': np.float64(5.81)}]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[[512], [141, 512], [512, 512], [], []]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[[1], [512, 1], [1, 512], [], []]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.806942210477941</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5.7919921875</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.1148433039589013</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>5.633056640625</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>6.080078125</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>98.718017578125</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30522</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>(512, 1)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>(1, 512)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>4.41119205</v>
+      </c>
+      <c r="K3" t="n">
+        <v>38.21102142333984</v>
+      </c>
+      <c r="L3" t="n">
+        <v>110.0949518258843</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.9706184971877716</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.9706184971877716</v>
+      </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
+        <v>0.9706184971877716</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.9706184971877716</v>
+      </c>
+      <c r="R3" t="n">
+        <v>106.8601966892</v>
+      </c>
+      <c r="S3" t="n">
+        <v>106.8601966892</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="n">
+        <v>106.8601966892</v>
+      </c>
+      <c r="V3" t="n">
+        <v>106.8601966892</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2&gt;(cutlass_80_tensorop_bf16_s16816gemm_bf16_256x128_64x3_tn_align2::Params)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(41.28), 'mean_duration_us': np.float64(41.28), 'median_duration_us': np.float64(41.28), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(41.28), 'max_duration_us': np.float64(41.28)}]</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_bf16_2...', 'stream': 7, 'mean_duration_us': np.float64(41.28)}]</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>[[30522], [141, 512], [512, 30522], [], []]</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>[[1], [512, 1], [1, 512], [], []]</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>41.280029296875</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>141</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E2" t="n">
-        <v>141</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64</v>
-      </c>
-      <c r="H2" t="n">
-        <v>64</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.040716288</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.55078125</v>
-      </c>
-      <c r="N2" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.06187396470356522</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.06332550208801799</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.003054615255047572</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.05729479403216432</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.06355006060606061</v>
-      </c>
-      <c r="T2" t="n">
-        <v>4.362114511601348</v>
-      </c>
-      <c r="U2" t="n">
-        <v>4.464447897205268</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.2153503754808538</v>
-      </c>
-      <c r="W2" t="n">
-        <v>4.039282979267584</v>
-      </c>
-      <c r="X2" t="n">
-        <v>4.480279272727273</v>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(37.408), 'mean_duration_us': np.float64(9.352), 'median_duration_us': np.float64(9.12), 'std_dev_duration_us': np.float64(0.4205139712304459), 'min_duration_us': np.float64(9.088), 'max_duration_us': np.float64(10.08)}]</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(9.35)}]</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>[[1, 8, 141, 64], [1, 8, 141, 64], [1, 8, 141, 64], [], [], [], []]</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar', 'Scalar', 'Scalar']</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>[[72192, 64, 512, 1], [72192, 64, 512, 1], [72192, 64, 512, 1], [], [], [], []]</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>['', '', '', '0.', 'False', 'False', '0.125']</t>
-        </is>
-      </c>
-      <c r="AE2" t="n">
-        <v>9.35205078125</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.1201171875</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.4855892589480966</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9.087890625</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>10.080078125</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>37.408203125</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AK3" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(2048, 1)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>(1, 2048)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>0.295770624</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.689453125</v>
+      </c>
+      <c r="L4" t="n">
+        <v>104.8796296296296</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.340983294864334</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.3428851002348915</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.005760420394028042</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3325592565209881</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3456037224665649</v>
+      </c>
+      <c r="R4" t="n">
+        <v>35.76220167526214</v>
+      </c>
+      <c r="S4" t="n">
+        <v>35.96166231815386</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.6041507574366252</v>
+      </c>
+      <c r="U4" t="n">
+        <v>34.87869165382622</v>
+      </c>
+      <c r="V4" t="n">
+        <v>36.24679041091463</v>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgroupsize1x1x1_execute_segment_k_off_kernel__5x_cublas', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(33.089), 'mean_duration_us': np.float64(8.27225), 'median_duration_us': np.float64(8.224499999999999), 'std_dev_duration_us': np.float64(0.12280141489412913), 'min_duration_us': np.float64(8.16), 'max_duration_us': np.float64(8.48)}]</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>[{'name': 'sm90_xmma_gemm_bf16bf16_bf16f32_f32_tn_n_tilesize64x64x64_warpgr...', 'stream': 7, 'mean_duration_us': np.float64(8.27)}]</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>[[512], [141, 2048], [2048, 512], [], []]</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>[[1], [2048, 1], [1, 2048], [], []]</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD4" t="n">
+        <v>8.27227783203125</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>8.224609375</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0.1417879653527536</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>8.159912109375</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.47998046875</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>33.089111328125</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>4</v>
       </c>
-      <c r="AL2" t="n">
-        <v>79</v>
+      <c r="AK4" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>aten::addmm</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2048</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(512, 1)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>(1, 512)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', 'c10::BFloat16')</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2959872</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.6923828125</v>
+      </c>
+      <c r="L5" t="n">
+        <v>104.8422198041349</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.4609334034383986</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4631792165968792</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01141497729429235</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.4455801528976572</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.4717950276621787</v>
+      </c>
+      <c r="R5" t="n">
+        <v>48.32528119835659</v>
+      </c>
+      <c r="S5" t="n">
+        <v>48.56073723515704</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.196771558547411</v>
+      </c>
+      <c r="U5" t="n">
+        <v>46.71561233045623</v>
+      </c>
+      <c r="V5" t="n">
+        <v>49.46403799265606</v>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>matrix_bf16</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8&gt;(cutlass_80_tensorop_bf16_s16816gemm_relu_bf16_64x64_64x6_tn_align8::Params)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(24.510999999999996), 'mean_duration_us': np.float64(6.127749999999999), 'median_duration_us': np.float64(6.0954999999999995), 'std_dev_duration_us': np.float64(0.13305708361451504), 'min_duration_us': np.float64(5.984), 'max_duration_us': np.float64(6.336)}]</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>[{'name': 'void cutlass::Kernel2&lt;cutlass_80_tensorop_bf16_s16816gemm_relu_b...', 'stream': 7, 'mean_duration_us': np.float64(6.13)}]</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>[[2048], [141, 512], [512, 2048], [], []]</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>[[1], [512, 1], [1, 512], [], []]</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>['', '', '', '1', '1']</t>
+        </is>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.12774658203125</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>6.0955810546875</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.1536288548372083</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5.98388671875</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.3359375</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>24.510986328125</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3180,7 +5238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AM2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3196,165 +5254,190 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>param: shape_in1</t>
+          <t>param: B</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>param: shape_in2</t>
+          <t>param: N_Q</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>param: dtype_in1_in2_out</t>
+          <t>param: H_Q</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_input1</t>
+          <t>param: N_KV</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_input2</t>
+          <t>param: H_KV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>param: stride_output</t>
+          <t>param: d_h_qk</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>param: d_h_v</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>param: dropout</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>param: causal</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>param: flash_impl</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>GFLOPS_first</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Data Moved (MB)_first</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>FLOPS/Byte_first</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TB/s_mean</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TB/s_median</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>TB/s_std</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>TB/s_min</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>TB/s_max</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_mean</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_median</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_std</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_min</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>TFLOPS/s_max</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>kernel_details__summarize_kernel_stats</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>trunc_kernel_details</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Input Dims_first</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Input type_first</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Input Strides_first</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Concrete Inputs_first</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_mean</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_median</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_std</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_min</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_max</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Kernel Time (µs)_sum</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>name_count</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>UID_first</t>
         </is>
@@ -3363,6 +5446,353 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>aten::_scaled_dot_product_flash_attention</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0.040716288</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.55078125</v>
+      </c>
+      <c r="N2" t="n">
+        <v>70.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.06187396470356522</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.06332550208801799</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.003054615255047572</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.05729479403216432</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.06355006060606061</v>
+      </c>
+      <c r="T2" t="n">
+        <v>4.362114511601348</v>
+      </c>
+      <c r="U2" t="n">
+        <v>4.464447897205268</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.2153503754808538</v>
+      </c>
+      <c r="W2" t="n">
+        <v>4.039282979267584</v>
+      </c>
+      <c r="X2" t="n">
+        <v>4.480279272727273</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_kernel_traits&lt;64, 128, 128, 4, false, false, cutlass::bfloat16_t, pytorch_flash::Flash_kernel_traits&lt;64, 128, 128, 4, cutlass::bfloat16_t&gt; &gt;, false, false, false, false, false, true, false&gt;(pytorch_flash::Flash_fwd_params)', 'stream': 7, 'count': 4, 'total_duration_us': np.float64(37.408), 'mean_duration_us': np.float64(9.352), 'median_duration_us': np.float64(9.12), 'std_dev_duration_us': np.float64(0.4205139712304459), 'min_duration_us': np.float64(9.088), 'max_duration_us': np.float64(10.08)}]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void pytorch_flash::flash_fwd_kernel&lt;pytorch_flash::Flash_fwd_ke...', 'stream': 7, 'mean_duration_us': np.float64(9.35)}]</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[[1, 8, 141, 64], [1, 8, 141, 64], [1, 8, 141, 64], [], [], [], []]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>[[72192, 64, 512, 1], [72192, 64, 512, 1], [72192, 64, 512, 1], [], [], [], []]</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>['', '', '', '0.', 'False', 'False', '0.125']</t>
+        </is>
+      </c>
+      <c r="AF2" t="n">
+        <v>9.35205078125</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>9.1201171875</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.4855892589480966</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9.087890625</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10.080078125</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>37.408203125</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AI3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>param: shape_in1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>param: shape_in2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param: dtype_in1_in2_out</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_input1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_input2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_output</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>GFLOPS_first</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Data Moved (MB)_first</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>FLOPS/Byte_first</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_mean</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_median</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_std</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_min</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_max</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_mean</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_median</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_std</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_min</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_max</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>kernel_details__summarize_kernel_stats</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>trunc_kernel_details</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Input Dims_first</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Input type_first</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Input Strides_first</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Concrete Inputs_first</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_mean</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_median</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_std</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_min</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_max</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_sum</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>name_count</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>UID_first</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
           <t>aten::add</t>
         </is>
       </c>
@@ -3391,7 +5821,11 @@
           <t>(72192, 512, 1)</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H2" t="n">
         <v>7.2192e-05</v>
       </c>
@@ -3433,56 +5867,61 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 9, 'total_duration_us': np.float64(14.752), 'mean_duration_us': np.float64(1.6391111111111112), 'median_duration_us': np.float64(1.632), 'std_dev_duration_us': np.float64(0.03927239472777688), 'min_duration_us': np.float64(1.6), 'max_duration_us': np.float64(1.728)}]</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(1.64)}]</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>[[1, 141, 512], [1, 141, 512], []]</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>['c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
         <is>
           <t>[[72192, 512, 1], [72192, 512, 1], []]</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AA2" t="inlineStr">
         <is>
           <t>['', '', '1']</t>
         </is>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>1.639187282986111</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>1.632080078125</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.04163178334732152</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1.60009765625</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>1.72802734375</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>14.752685546875</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>9</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>19</v>
       </c>
     </row>
@@ -3517,7 +5956,11 @@
           <t>(72192, 512, 1)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>7.2192e-05</v>
       </c>
@@ -3555,44 +5998,46 @@
       </c>
       <c r="U3" t="inlineStr">
         <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt; &gt;(int, at::native::CUDAFunctor_add&lt;c10::BFloat16&gt;, std::array&lt;char*, 3ul&gt;)', 'stream': 7, 'count': 1, 'total_duration_us': np.float64(1.696), 'mean_duration_us': np.float64(1.696), 'median_duration_us': np.float64(1.696), 'std_dev_duration_us': np.float64(0.0), 'min_duration_us': np.float64(1.696), 'max_duration_us': np.float64(1.696)}]</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>[{'name': 'void at::native::vectorized_elementwise_kernel&lt;4, at::native::CU...', 'stream': 7, 'mean_duration_us': np.float64(1.7)}]</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>[[1, 141, 512], [1, 141, 512], []]</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>['c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
         <is>
           <t>[[72192, 512, 1], [72192, 512, 1], []]</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AA3" t="inlineStr">
         <is>
           <t>['', '', '1']</t>
         </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.696044921875</v>
       </c>
       <c r="AB3" t="n">
         <v>1.696044921875</v>
       </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
+      <c r="AC3" t="n">
         <v>1.696044921875</v>
       </c>
+      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
         <v>1.696044921875</v>
       </c>
@@ -3600,10 +6045,509 @@
         <v>1.696044921875</v>
       </c>
       <c r="AG3" t="n">
+        <v>1.696044921875</v>
+      </c>
+      <c r="AH3" t="n">
         <v>1</v>
       </c>
+      <c r="AI3" t="n">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>param: op_shape</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>param: dtype_in_out</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_input</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>param: stride_output</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>param: num_channels</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>param: has_bias</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>param: is_affine</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>param: is_training</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>GFLOPS_first</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Data Moved (MB)_first</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>FLOPS/Byte_first</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_mean</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_median</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_std</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_min</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>TB/s_max</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_mean</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_median</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_std</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_min</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>TFLOPS/s_max</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Compute Spec</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>kernel_details__summarize_kernel_stats</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>trunc_kernel_details</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Input Dims_first</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Input type_first</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Input Strides_first</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Concrete Inputs_first</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_mean</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_median</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_std</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_min</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_max</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Kernel Time (µs)_sum</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>name_count</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>UID_first</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>aten::layer_norm</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(1, 141, 512)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', None)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>(72192, 512, 1)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000364032</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.234375</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.09547558591213023</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.09650430420619358</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.002740055714790023</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.09038230841750841</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.09804070708546384</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1178526763602858</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.1191225005045202</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.003382256272943936</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1115656619528619</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1210189978086194</v>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 10, 'total_duration_us': np.float64(30.911999999999995), 'mean_duration_us': np.float64(3.0911999999999997), 'median_duration_us': np.float64(3.056), 'std_dev_duration_us': np.float64(0.08591833331716812), 'min_duration_us': np.float64(3.008), 'max_duration_us': np.float64(3.263)}]</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(3.09)}]</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>[[1, 141, 512], [], [512], [512], [], []]</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>[[72192, 512, 1], [], [1], [1], [], []]</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>['', '[512]', '', '', '9.9999999999999998e-13', 'True']</t>
+        </is>
+      </c>
+      <c r="AD2" t="n">
+        <v>3.0912109375</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3.0560302734375</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.09052056327519079</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3.008056640625</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3.262939453125</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>30.912109375</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>aten::native_layer_norm</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>(1, 141, 512)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>('c10::BFloat16', None)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>(72192, 512, 1)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>0.000364032</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.234375</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.09547558591213023</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.09650430420619358</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.002740055714790023</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.09038230841750841</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.09804070708546384</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1178526763602858</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.1191225005045202</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.003382256272943936</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.1115656619528619</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1210189978086194</v>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>vector_bf16</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_kernel&lt;c10::BFloat16, float&gt;(int, float, c10::BFloat16 const*, c10::BFloat16 const*, c10::BFloat16 const*, float*, float*, c10::BFloat16*)', 'stream': 7, 'count': 10, 'total_duration_us': np.float64(30.911999999999995), 'mean_duration_us': np.float64(3.0911999999999997), 'median_duration_us': np.float64(3.056), 'std_dev_duration_us': np.float64(0.08591833331716812), 'min_duration_us': np.float64(3.008), 'max_duration_us': np.float64(3.263)}]</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>[{'name': 'void at::native::(anonymous namespace)::vectorized_layer_norm_ke...', 'stream': 7, 'mean_duration_us': np.float64(3.09)}]</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>[[1, 141, 512], [], [512], [512], []]</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>['c10::BFloat16', 'ScalarList', 'c10::BFloat16', 'c10::BFloat16', 'Scalar']</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>[[72192, 512, 1], [], [1], [1], []]</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>['', '[512]', '', '', '9.9999999999999998e-13']</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>3.0912109375</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3.0560302734375</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0.09052056327519079</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3.008056640625</v>
+      </c>
       <c r="AH3" t="n">
-        <v>27</v>
+        <v>3.262939453125</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>30.912109375</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
